--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560514.9138694743</v>
+        <v>562842.8934663909</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346305</v>
+        <v>3854815.050462387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7500933.044186202</v>
+        <v>7446703.577420283</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>167.0235222548665</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>135.0820259802219</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>167.8202982761268</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>340.4340932365991</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>61.39345098864458</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>161.4085122120593</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>349.7480363891213</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1224,7 +1226,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488549</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
         <v>87.41444223540508</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>129.2921792063087</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>349.7480363891209</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>170.2797053248273</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -1549,7 +1551,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.35996799970812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>336.6327140501647</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.0074039714627</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>108.4701098559617</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>43.89213401624576</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.6203742018781</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.2711333470682</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>159.314994701633</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>152.7855877686576</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>118.2587887852922</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2330,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>316.5487336740566</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>11.61260049965533</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>11.61260049965488</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2555,16 +2557,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>332.7770642499989</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>33.01699698630753</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.6663781598623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>372.4089305243873</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>72.87250780621707</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>159.314994701633</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>256.4561542453789</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3038,13 +3040,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>171.900006262414</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>119.21372825464</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3193,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.98476809241017</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3272,13 +3274,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>322.5108341415331</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.78215756420502</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.308920675177417</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3503,7 +3505,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>332.7770642499989</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>312.9896827752208</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>157.7228447462342</v>
+        <v>172.6259255050181</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>179.4080122938798</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>367.7453635965413</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>406.3351562371461</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>406.3351562371461</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>120.9738481978128</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>121.3691205752644</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>47.49569834506668</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347864</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2058.57031924742</v>
+        <v>1394.571868901601</v>
       </c>
       <c r="C2" t="n">
-        <v>1665.394817750351</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.953688967018</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3701640835627</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>318.7636682303387</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
         <v>318.7636682303387</v>
@@ -4352,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>1992.431407763484</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>1736.678678198082</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.571868901601</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.571868901601</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.571868901601</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.571868901601</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M3" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4446,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4510,19 +4512,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
         <v>47.31297010154361</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>835.3376237683314</v>
+        <v>216.8284229057121</v>
       </c>
       <c r="C5" t="n">
-        <v>835.3376237683314</v>
+        <v>216.8284229057121</v>
       </c>
       <c r="D5" t="n">
-        <v>449.8964949849991</v>
+        <v>216.8284229057121</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>216.8284229057121</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>216.8284229057121</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>216.8284229057121</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4592,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W5" t="n">
-        <v>2021.77568362607</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X5" t="n">
-        <v>1632.323078559127</v>
+        <v>617.323168617109</v>
       </c>
       <c r="Y5" t="n">
-        <v>1235.832369479728</v>
+        <v>617.323168617109</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
         <v>367.0521161637701</v>
@@ -4653,34 +4655,34 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1263.630217479597</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H7" t="n">
         <v>47.31297010154361</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.3518713258459</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154361</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4810,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4837,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1396.789931183585</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X8" t="n">
-        <v>1007.337326116642</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y8" t="n">
-        <v>610.8466170372428</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4920,13 +4922,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.484107317425</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4992,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179.210445219441</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="C11" t="n">
-        <v>786.0349437223717</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="D11" t="n">
-        <v>400.5938149390395</v>
+        <v>621.8961973333095</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>219.312672449854</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>219.312672449854</v>
       </c>
       <c r="G11" t="n">
         <v>47.31297010154361</v>
@@ -5072,19 +5074,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X11" t="n">
-        <v>1976.195900010237</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.705190930838</v>
+        <v>1007.337326116642</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.64850507718</v>
@@ -5157,13 +5159,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5179,22 +5181,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
         <v>47.31297010154361</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2058.57031924742</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C14" t="n">
-        <v>1665.394817750351</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G14" t="n">
         <v>47.31297010154361</v>
@@ -5282,19 +5284,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712875</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415868</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5309,19 +5311,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>47.31297010154361</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>623.643757208308</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.14176221491</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154361</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1972.473003580111</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1587.031874796779</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>1184.448349913323</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>767.5539114433008</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>354.3911559313039</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5516,19 +5518,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5543,22 +5545,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U17" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V17" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W17" t="n">
-        <v>1173.289328743002</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X17" t="n">
-        <v>783.8367236760583</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y17" t="n">
-        <v>387.3460145966595</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
         <v>47.31297010154361</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>839.1942251118217</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="V19" t="n">
-        <v>447.0615956321544</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W19" t="n">
-        <v>447.0615956321544</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X19" t="n">
-        <v>402.7261067268557</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
-        <v>402.7261067268557</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.818808418026</v>
+        <v>1226.556240989903</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>833.3807394928335</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>447.9396107095013</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>447.9396107095013</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>447.9396107095013</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="Y20" t="n">
-        <v>1164.818808418026</v>
+        <v>1627.0509867013</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5868050664922</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5868050664922</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>543.2579285324946</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>387.699116391697</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>230.37318160467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>697.5868050664922</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>697.5868050664922</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X22" t="n">
-        <v>697.5868050664922</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y22" t="n">
-        <v>697.5868050664922</v>
+        <v>208.2372071739002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1807.388670072005</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C23" t="n">
-        <v>1414.213168574936</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>783.9536042019261</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>367.0591657319038</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2597.336020850345</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W23" t="n">
-        <v>2597.336020850345</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X23" t="n">
-        <v>2207.883415783402</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y23" t="n">
-        <v>2207.883415783402</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2685.906405836517</v>
+        <v>1957.328425202522</v>
       </c>
       <c r="C25" t="n">
-        <v>2515.701287902506</v>
+        <v>1787.123307268512</v>
       </c>
       <c r="D25" t="n">
-        <v>2360.068174805021</v>
+        <v>1631.490194171026</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>1475.931382030229</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X25" t="n">
-        <v>3094.226485711175</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y25" t="n">
-        <v>2871.114424527819</v>
+        <v>2142.536443893824</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1179.210445219441</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="C26" t="n">
-        <v>786.0349437223717</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D26" t="n">
-        <v>786.0349437223717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E26" t="n">
-        <v>383.4514188389163</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F26" t="n">
         <v>47.31297010154361</v>
@@ -6257,19 +6259,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2332.298003070809</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>1990.191193774328</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.64850507718</v>
+        <v>1619.192158742615</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.195900010237</v>
+        <v>1229.739553675672</v>
       </c>
       <c r="Y26" t="n">
-        <v>1579.705190930838</v>
+        <v>833.2488445962728</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>140.0776713099947</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L27" t="n">
-        <v>623.643757208308</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.14176221491</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.14176221491</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2133.302730668846</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>1963.097612734835</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>1807.46449963735</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>1651.905687496553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>2318.510749360148</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2365.64850507718</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C29" t="n">
-        <v>1989.47786818386</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D29" t="n">
-        <v>1604.036739400527</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.453214517072</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
@@ -6464,49 +6466,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.64850507718</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.64850507718</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="Y29" t="n">
-        <v>2365.64850507718</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K30" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154361</v>
+        <v>208.2372071739002</v>
       </c>
       <c r="C31" t="n">
         <v>47.31297010154361</v>
@@ -6658,13 +6660,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>689.7133721932184</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X31" t="n">
-        <v>455.6330499762015</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.5209887928449</v>
+        <v>208.2372071739002</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1989.47786818386</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="C32" t="n">
-        <v>1989.47786818386</v>
+        <v>1008.973993730366</v>
       </c>
       <c r="D32" t="n">
-        <v>1604.036739400527</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.453214517072</v>
+        <v>220.9493400635779</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6698,25 +6700,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.42141205333</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6725,25 +6727,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2245.230597749261</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U32" t="n">
-        <v>1989.47786818386</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V32" t="n">
-        <v>1989.47786818386</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W32" t="n">
-        <v>1989.47786818386</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X32" t="n">
-        <v>1989.47786818386</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y32" t="n">
-        <v>1989.47786818386</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>1734.829262705729</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2140.450631422126</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
         <v>47.31297010154361</v>
@@ -6883,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T34" t="n">
-        <v>713.0409408113302</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U34" t="n">
-        <v>713.0409408113302</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2058.57031924742</v>
+        <v>1151.698119716827</v>
       </c>
       <c r="C35" t="n">
-        <v>1665.394817750351</v>
+        <v>758.5226182197578</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>373.0814894364255</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G35" t="n">
         <v>47.31297010154361</v>
@@ -6959,28 +6961,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.64850507718</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.64850507718</v>
+        <v>1151.698119716827</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>160.4279523212717</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>480.1670983834982</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>963.7331842818114</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1549.231189288414</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N36" t="n">
-        <v>2134.729194295016</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O36" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9515130956901</v>
+        <v>1784.555132309384</v>
       </c>
       <c r="C37" t="n">
-        <v>132.9515130956901</v>
+        <v>1784.555132309384</v>
       </c>
       <c r="D37" t="n">
-        <v>132.9515130956901</v>
+        <v>1784.555132309384</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1628.996320168586</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1628.996320168586</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1628.996320168586</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1627.674178072448</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="T37" t="n">
-        <v>622.0429194582225</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="U37" t="n">
-        <v>622.0429194582225</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="V37" t="n">
-        <v>356.0635742790467</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="W37" t="n">
-        <v>356.0635742790467</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="X37" t="n">
-        <v>356.0635742790467</v>
+        <v>2007.667193492741</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.9515130956901</v>
+        <v>1784.555132309384</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1179.210445219441</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="C38" t="n">
-        <v>786.0349437223717</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D38" t="n">
-        <v>786.0349437223717</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E38" t="n">
-        <v>383.4514188389163</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G38" t="n">
         <v>47.31297010154361</v>
@@ -7172,22 +7174,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
         <v>2365.64850507718</v>
@@ -7211,13 +7213,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>2049.497310354735</v>
       </c>
       <c r="X38" t="n">
-        <v>1976.195900010237</v>
+        <v>1660.044705287792</v>
       </c>
       <c r="Y38" t="n">
-        <v>1579.705190930838</v>
+        <v>1263.553996208393</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154434</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154434</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998575</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.37706100646</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013062</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604043</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
         <v>47.31297010154361</v>
@@ -7360,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>440.488471598613</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C41" t="n">
-        <v>47.31297010154361</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D41" t="n">
         <v>47.31297010154361</v>
@@ -7409,25 +7411,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N41" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q41" t="n">
         <v>2365.64850507718</v>
@@ -7439,22 +7441,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T41" t="n">
-        <v>2206.332500283004</v>
+        <v>2191.27888335494</v>
       </c>
       <c r="U41" t="n">
-        <v>1950.579770717603</v>
+        <v>1935.526153789539</v>
       </c>
       <c r="V41" t="n">
-        <v>1608.472961421121</v>
+        <v>1593.419344493057</v>
       </c>
       <c r="W41" t="n">
-        <v>1237.473926389409</v>
+        <v>1222.420309461344</v>
       </c>
       <c r="X41" t="n">
-        <v>1237.473926389409</v>
+        <v>1222.420309461344</v>
       </c>
       <c r="Y41" t="n">
-        <v>840.9832173100099</v>
+        <v>825.9296003819453</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N42" t="n">
-        <v>2021.614212075288</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7533,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7596,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>745.9439088256454</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>564.7236943873829</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
         <v>47.31297010154361</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1224.845879237187</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="C44" t="n">
-        <v>1224.845879237187</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="D44" t="n">
-        <v>1224.845879237187</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="E44" t="n">
-        <v>853.3859160083578</v>
+        <v>999.5659703439796</v>
       </c>
       <c r="F44" t="n">
-        <v>442.9463642536647</v>
+        <v>582.6715318739574</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>169.5087763619605</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>169.5087763619605</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>391.4891685264335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L44" t="n">
-        <v>793.7609732012081</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.032777875983</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N44" t="n">
-        <v>1598.304582550757</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O44" t="n">
-        <v>1625.340624948584</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y44" t="n">
-        <v>1625.340624948584</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.6075338279917</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>168.953303388084</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>168.953303388084</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K45" t="n">
-        <v>352.2459585611981</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L45" t="n">
-        <v>352.2459585611981</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M45" t="n">
-        <v>754.5177632359728</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N45" t="n">
-        <v>820.7970155990351</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O45" t="n">
-        <v>1223.06882027381</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.745553660438</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1292.68241033908</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1070.142408710147</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
-        <v>840.0251628434341</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>650.7180851934459</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4038682689531</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>723.8936024070319</v>
+        <v>539.420211517574</v>
       </c>
       <c r="C46" t="n">
-        <v>723.8936024070319</v>
+        <v>539.420211517574</v>
       </c>
       <c r="D46" t="n">
-        <v>723.8936024070319</v>
+        <v>491.4447586437693</v>
       </c>
       <c r="E46" t="n">
-        <v>723.8936024070319</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F46" t="n">
-        <v>723.8936024070319</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G46" t="n">
-        <v>723.8936024070319</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H46" t="n">
-        <v>723.8936024070319</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S46" t="n">
-        <v>1625.340624948584</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T46" t="n">
-        <v>1389.621573116818</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U46" t="n">
-        <v>1104.182781358719</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V46" t="n">
-        <v>838.2034361795435</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W46" t="n">
-        <v>723.8936024070319</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X46" t="n">
-        <v>723.8936024070319</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.8936024070319</v>
+        <v>539.420211517574</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>271.1401458256686</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,7 +8066,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>577.0069902189997</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8301,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>509.5709760063966</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8458,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,22 +8534,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>509.5709760063966</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585531</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8769,16 +8771,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8930,13 +8932,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>458.1505014870046</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,13 +9008,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>674.5394322581649</v>
+        <v>509.5709760063966</v>
       </c>
       <c r="N15" t="n">
         <v>676.7842391234617</v>
@@ -9021,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,10 +9245,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>683.7992483186069</v>
@@ -9255,10 +9257,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594865</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577837</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>183.2986537257082</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,16 +9965,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10112,10 +10114,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10124,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10194,10 +10196,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>351.5705978518764</v>
+        <v>99.85242174740807</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
@@ -10209,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>301.1357168357237</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10431,7 +10433,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>683.7992483186069</v>
@@ -10443,10 +10445,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>318.4607528074828</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>325.9393879617821</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10832,13 +10834,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O42" t="n">
-        <v>440.1969457594865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,22 +11299,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>176.8729711592752</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11376,22 +11378,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>498.722278286458</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>152.3208526148357</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>54.24207416131097</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22787,10 +22789,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22799,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>153.0219216530474</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22832,25 +22834,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>26.85495144479631</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22948,16 +22950,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>171.9684103248036</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>227.8352342700394</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23075,13 +23077,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>17.54100829227411</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,19 +23187,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>26.46049623284807</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23230,13 +23232,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>48.80965324549999</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>238.7514226320496</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23312,19 +23314,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23421,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23549,19 +23551,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>227.8352342700393</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.85708420411822</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>16.83481595771156</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23783,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>124.8917514574865</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>187.847384978601</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>12.41075375499878</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>239.2546686415367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275524</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>1.291194197852803</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24184,16 +24186,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>263.3279287102068</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>92.48239428282028</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24254,7 +24256,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24263,13 +24265,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>144.1400749395015</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24427,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>220.1269184951918</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>79.94842983532311</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24497,13 +24499,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>220.1782052834398</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -24622,7 +24624,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2145624116608</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>16.83481595771138</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>312.6855712100567</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>9.188072053037644</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24898,7 +24900,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>24.04094380275529</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>240.825487822908</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24965,13 +24967,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>102.0518681615375</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24983,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25083,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>133.0184559269793</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>76.04685549308783</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25217,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>69.22106645518448</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25327,13 +25329,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>152.6148448529435</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -25369,13 +25371,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>79.94842983532311</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25451,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>54.29936190617457</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25600,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25679,7 +25681,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>63.54275166994324</v>
+        <v>48.63967091115941</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>83.91153943350417</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25871,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>30.81232603807962</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.390337848175932</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.695971719730778</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>15.97989754064706</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25931,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.84485310781623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>106.5810836214437</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26038,10 +26040,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133477</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644004.5325861953</v>
+        <v>644004.532586195</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644004.5325861953</v>
+        <v>644004.532586195</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644004.5325861947</v>
+        <v>644004.532586195</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644004.5325861953</v>
+        <v>644004.532586195</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644004.5325861949</v>
+        <v>644004.5325861953</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725533.2979719228</v>
+        <v>644004.5325861952</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725533.2979719226</v>
+        <v>644004.5325861949</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644004.5325861949</v>
+        <v>644004.5325861954</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644004.5325861952</v>
+        <v>644004.5325861953</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644004.5325861947</v>
+        <v>644004.5325861953</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644004.5325861953</v>
+        <v>644004.5325861954</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519048.3846331953</v>
+        <v>644004.532586195</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26316,34 @@
         <v>169394.3482070293</v>
       </c>
       <c r="C2" t="n">
+        <v>169394.3482070292</v>
+      </c>
+      <c r="D2" t="n">
+        <v>169394.3482070292</v>
+      </c>
+      <c r="E2" t="n">
         <v>169394.3482070293</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>169394.3482070293</v>
-      </c>
-      <c r="E2" t="n">
-        <v>169394.3482070292</v>
-      </c>
-      <c r="F2" t="n">
-        <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="H2" t="n">
-        <v>190834.012360257</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="I2" t="n">
-        <v>190834.012360257</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="J2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="K2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="L2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="M2" t="n">
         <v>169394.3482070293</v>
@@ -26350,10 +26352,10 @@
         <v>169394.3482070292</v>
       </c>
       <c r="O2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="P2" t="n">
-        <v>136534.5614395193</v>
+        <v>169394.3482070292</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>23353.24319649382</v>
       </c>
       <c r="G4" t="n">
+        <v>23353.24319649383</v>
+      </c>
+      <c r="H4" t="n">
         <v>23353.24319649382</v>
       </c>
-      <c r="H4" t="n">
-        <v>26357.40659176976</v>
-      </c>
       <c r="I4" t="n">
-        <v>26357.40659176976</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="J4" t="n">
         <v>23353.24319649382</v>
@@ -26457,7 +26459,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="P4" t="n">
-        <v>18748.87216353321</v>
+        <v>23353.24319649382</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26522,31 +26524,31 @@
         <v>-121740.1582583827</v>
       </c>
       <c r="C6" t="n">
-        <v>76455.64773336228</v>
+        <v>76455.64773336226</v>
       </c>
       <c r="D6" t="n">
-        <v>76455.64773336228</v>
+        <v>76455.64773336225</v>
       </c>
       <c r="E6" t="n">
-        <v>110083.2477333622</v>
+        <v>110083.2477333623</v>
       </c>
       <c r="F6" t="n">
         <v>110083.2477333623</v>
       </c>
       <c r="G6" t="n">
+        <v>110083.2477333622</v>
+      </c>
+      <c r="H6" t="n">
         <v>110083.2477333623</v>
       </c>
-      <c r="H6" t="n">
-        <v>67330.63650595536</v>
-      </c>
       <c r="I6" t="n">
-        <v>117266.0687133594</v>
+        <v>110083.2477333623</v>
       </c>
       <c r="J6" t="n">
-        <v>3768.092114850348</v>
+        <v>-44656.18663224117</v>
       </c>
       <c r="K6" t="n">
-        <v>110083.2477333622</v>
+        <v>110083.2477333623</v>
       </c>
       <c r="L6" t="n">
         <v>110083.2477333623</v>
@@ -26558,10 +26560,10 @@
         <v>110083.2477333623</v>
       </c>
       <c r="O6" t="n">
-        <v>110083.2477333623</v>
+        <v>110083.2477333622</v>
       </c>
       <c r="P6" t="n">
-        <v>93080.51177676757</v>
+        <v>110083.2477333622</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>128.0817426464313</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,7 +34786,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6198681696878</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>417.1838539570846</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>309.0320101492205</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>582.152310208853</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="N15" t="n">
         <v>591.4121262692951</v>
@@ -35741,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>591.4121262692951</v>
@@ -35975,10 +35977,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705977</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688948</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>93.70171839237487</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,16 +36685,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36844,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>259.1834758025644</v>
+        <v>7.465299698096163</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
@@ -36929,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>591.4121262692951</v>
@@ -37163,10 +37165,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>233.2518290728932</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37552,13 +37554,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O38" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O42" t="n">
-        <v>347.5093868705977</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>27.30913373517882</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>66.94873976066906</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>562842.8934663909</v>
+        <v>557134.7376585049</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462387</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>396.3074925255262</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>167.0235222548665</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802219</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>257.0707493222162</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>387.3665122342187</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>167.8202982761268</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -952,7 +952,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.39345098864458</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>270.7395345320739</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.246319336381052</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.7480363891213</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>129.2921792063087</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>170.2797053248273</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>136.2402533494259</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.6476561767118</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>254.6210691929066</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>367.8816320953488</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0074039714627</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>108.4701098559617</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>396.6203742018781</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>114.6864298256016</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>184.899616880761</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11.61260049965533</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>33.01699698630753</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>331.751088799728</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0.5925874139533188</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -2848,16 +2848,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>72.87250780621707</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>164.3898041407502</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>171.900006262414</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>322.5108341415331</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>53.99032785754729</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.308920675177417</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>254.6210691929066</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>312.9896827752208</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -3723,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>142.2721409954419</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>172.6259255050181</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.2650757350483</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.9738481978128</v>
+        <v>26.94368671266167</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>47.49569834506668</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.571868901601</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="C2" t="n">
-        <v>1001.396367404531</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="D2" t="n">
-        <v>1001.396367404531</v>
+        <v>1267.101531965654</v>
       </c>
       <c r="E2" t="n">
-        <v>598.8128425210757</v>
+        <v>864.5180070821984</v>
       </c>
       <c r="F2" t="n">
-        <v>598.8128425210757</v>
+        <v>447.6235686121762</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1992.431407763484</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1736.678678198082</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>1394.571868901601</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.571868901601</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X2" t="n">
-        <v>1394.571868901601</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.571868901601</v>
+        <v>1652.542660748986</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
         <v>1725.662044805892</v>
@@ -4448,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>882.0615091076409</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U4" t="n">
-        <v>596.6227173495417</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V4" t="n">
-        <v>330.643372170366</v>
+        <v>486.2764852678512</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>216.8284229057121</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="C5" t="n">
-        <v>216.8284229057121</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="D5" t="n">
-        <v>216.8284229057121</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="E5" t="n">
-        <v>216.8284229057121</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>216.8284229057121</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>216.8284229057121</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4567,22 +4567,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.634347577648</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>1719.881618012246</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V5" t="n">
-        <v>1377.774808715765</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W5" t="n">
-        <v>1006.775773684052</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X5" t="n">
-        <v>617.323168617109</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="Y5" t="n">
-        <v>617.323168617109</v>
+        <v>438.5922753886333</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M6" t="n">
-        <v>850.6182020620834</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N6" t="n">
         <v>1209.14176221491</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>683.9303219684286</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C7" t="n">
-        <v>683.9303219684286</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D7" t="n">
-        <v>683.9303219684286</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E7" t="n">
-        <v>528.3715098276311</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F7" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>683.9303219684286</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V7" t="n">
-        <v>683.9303219684286</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W7" t="n">
-        <v>683.9303219684286</v>
+        <v>389.8469235798719</v>
       </c>
       <c r="X7" t="n">
-        <v>683.9303219684286</v>
+        <v>389.8469235798719</v>
       </c>
       <c r="Y7" t="n">
-        <v>683.9303219684286</v>
+        <v>389.8469235798719</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825.9296003819453</v>
+        <v>1323.390908932847</v>
       </c>
       <c r="C8" t="n">
-        <v>432.7540988848759</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154361</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4831,25 +4831,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>2012.367660239684</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.915055172741</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y8" t="n">
-        <v>1226.424346093342</v>
+        <v>1323.390908932847</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.0429194582225</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0429194582225</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D10" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>466.484107317425</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>622.0429194582225</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W10" t="n">
-        <v>622.0429194582225</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X10" t="n">
-        <v>622.0429194582225</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.0429194582225</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1007.337326116642</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C11" t="n">
-        <v>1007.337326116642</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D11" t="n">
-        <v>621.8961973333095</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E11" t="n">
-        <v>219.312672449854</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>219.312672449854</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5041,19 +5041,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
         <v>2365.64850507718</v>
@@ -5068,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2228.032087552508</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2004.531485111924</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.895775511779</v>
+        <v>2004.531485111924</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.788966215297</v>
+        <v>2004.531485111924</v>
       </c>
       <c r="W11" t="n">
-        <v>1396.789931183585</v>
+        <v>2004.531485111924</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.337326116642</v>
+        <v>2004.531485111924</v>
       </c>
       <c r="Y11" t="n">
-        <v>1007.337326116642</v>
+        <v>2004.531485111924</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
         <v>47.31297010154361</v>
@@ -5229,22 +5229,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>821.8431682221751</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>536.404376464076</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.488471598613</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
         <v>47.31297010154361</v>
@@ -5278,16 +5278,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1086.634161864653</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N14" t="n">
         <v>1392.575851912381</v>
@@ -5302,28 +5302,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>2340.032375784546</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.925566488064</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W14" t="n">
-        <v>1626.926531456352</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.473926389409</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y14" t="n">
-        <v>840.9832173100099</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1263.630217479597</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1849.128222486199</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.64850507718</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>163.7311935633321</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="C17" t="n">
-        <v>1972.473003580111</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="D17" t="n">
-        <v>1587.031874796779</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E17" t="n">
-        <v>1184.448349913323</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F17" t="n">
-        <v>767.5539114433008</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G17" t="n">
-        <v>354.3911559313039</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5515,25 +5515,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
@@ -5542,25 +5542,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068686</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N18" t="n">
-        <v>2021.614212075288</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>839.1942251118217</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>553.7554333537225</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>553.7554333537225</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
         <v>47.31297010154361</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1226.556240989903</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C20" t="n">
-        <v>833.3807394928335</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D20" t="n">
-        <v>447.9396107095013</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E20" t="n">
-        <v>447.9396107095013</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F20" t="n">
-        <v>447.9396107095013</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H20" t="n">
         <v>47.31297010154361</v>
@@ -5761,16 +5761,16 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
@@ -5779,25 +5779,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V20" t="n">
-        <v>2023.541695780699</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="W20" t="n">
-        <v>2023.541695780699</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="X20" t="n">
-        <v>2023.541695780699</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.0509867013</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.14176221491</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N21" t="n">
         <v>1209.14176221491</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1965.153759365783</v>
+        <v>1012.696890160492</v>
       </c>
       <c r="C23" t="n">
-        <v>1571.978257868714</v>
+        <v>619.5213886634224</v>
       </c>
       <c r="D23" t="n">
-        <v>1186.537129085382</v>
+        <v>234.0802598800901</v>
       </c>
       <c r="E23" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F23" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G23" t="n">
         <v>47.31297010154361</v>
@@ -5995,19 +5995,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
         <v>2365.64850507718</v>
@@ -6016,25 +6016,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.64850507718</v>
+        <v>1809.682344951288</v>
       </c>
       <c r="Y23" t="n">
-        <v>2365.64850507718</v>
+        <v>1413.191635871889</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>678.1322124729941</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.116207068686</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N24" t="n">
-        <v>1436.116207068686</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1957.328425202522</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>1787.123307268512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>1631.490194171026</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>1475.931382030229</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>2142.536443893824</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>432.7540988848759</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C26" t="n">
-        <v>432.7540988848759</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
@@ -6253,25 +6253,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U26" t="n">
-        <v>2332.298003070809</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V26" t="n">
-        <v>1990.191193774328</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="W26" t="n">
-        <v>1619.192158742615</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="X26" t="n">
-        <v>1229.739553675672</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="Y26" t="n">
-        <v>833.2488445962728</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.879055999857</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
         <v>2365.64850507718</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>895.1742662259204</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="C29" t="n">
-        <v>895.1742662259204</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="D29" t="n">
-        <v>509.7331374425881</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="E29" t="n">
-        <v>509.7331374425881</v>
+        <v>1202.051787662479</v>
       </c>
       <c r="F29" t="n">
-        <v>509.7331374425881</v>
+        <v>785.1573491924572</v>
       </c>
       <c r="G29" t="n">
-        <v>509.7331374425881</v>
+        <v>371.9945936804604</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.911543246951</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>1681.888704297768</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V29" t="n">
-        <v>1339.781895001287</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W29" t="n">
-        <v>968.782859969574</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X29" t="n">
-        <v>895.1742662259204</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y29" t="n">
-        <v>895.1742662259204</v>
+        <v>1604.635312545935</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631986</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
         <v>47.31297010154361</v>
@@ -6654,19 +6654,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1402.149495227435</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C32" t="n">
-        <v>1008.973993730366</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D32" t="n">
-        <v>623.5328649470334</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E32" t="n">
-        <v>220.9493400635779</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6712,40 +6712,40 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1740.763344043903</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U32" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V32" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W32" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X32" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y32" t="n">
-        <v>1802.644240938832</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L33" t="n">
-        <v>47.31297010154361</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
-        <v>632.8109751081457</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N33" t="n">
-        <v>1218.308980114748</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O33" t="n">
-        <v>1734.829262705729</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P33" t="n">
-        <v>2140.450631422126</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6885,16 +6885,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>510.2248569938795</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U34" t="n">
-        <v>224.7860652357804</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V34" t="n">
-        <v>47.31297010154361</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W34" t="n">
         <v>47.31297010154361</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1151.698119716827</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="C35" t="n">
-        <v>758.5226182197578</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="D35" t="n">
-        <v>373.0814894364255</v>
+        <v>839.0944607516431</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>839.0944607516431</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>839.0944607516431</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>425.9317052396462</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>101.8486548061368</v>
       </c>
       <c r="I35" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
         <v>2365.64850507718</v>
@@ -6973,16 +6973,16 @@
         <v>1937.641433863169</v>
       </c>
       <c r="V35" t="n">
-        <v>1937.641433863169</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W35" t="n">
-        <v>1937.641433863169</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X35" t="n">
-        <v>1548.188828796226</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y35" t="n">
-        <v>1151.698119716827</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>963.7331842818107</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M36" t="n">
-        <v>963.7331842818107</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N36" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O36" t="n">
         <v>1725.662044805891</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1784.555132309384</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>1784.555132309384</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>1784.555132309384</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>1628.996320168586</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1628.996320168586</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1628.996320168586</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2241.747515709757</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U37" t="n">
-        <v>2241.747515709757</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V37" t="n">
-        <v>2241.747515709757</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>2241.747515709757</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>2007.667193492741</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>1784.555132309384</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.0592504969959</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="C38" t="n">
-        <v>863.0592504969959</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="D38" t="n">
-        <v>863.0592504969959</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="E38" t="n">
-        <v>460.4757256135405</v>
+        <v>1134.563163268317</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>717.6687247982946</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>304.5059692862978</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7183,43 +7183,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N38" t="n">
-        <v>1925.608904184852</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W38" t="n">
-        <v>2049.497310354735</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X38" t="n">
-        <v>1660.044705287792</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y38" t="n">
-        <v>1263.553996208393</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>160.427952321271</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K39" t="n">
-        <v>480.1670983834974</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L39" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
         <v>47.31297010154361</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>825.9296003819453</v>
+        <v>1345.162447845801</v>
       </c>
       <c r="C41" t="n">
-        <v>432.7540988848759</v>
+        <v>1345.162447845801</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7414,22 +7414,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L41" t="n">
-        <v>864.7645682749193</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
         <v>2365.64850507718</v>
@@ -7441,22 +7441,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T41" t="n">
-        <v>2191.27888335494</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U41" t="n">
-        <v>1935.526153789539</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V41" t="n">
-        <v>1593.419344493057</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W41" t="n">
-        <v>1222.420309461344</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X41" t="n">
-        <v>1222.420309461344</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="Y41" t="n">
-        <v>825.9296003819453</v>
+        <v>1745.657193557198</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>160.4279523212711</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834975</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L42" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M42" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.64850507718</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E43" t="n">
         <v>47.31297010154361</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6228038740554</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1402.149495227435</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="C44" t="n">
-        <v>1402.149495227435</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="D44" t="n">
-        <v>1402.149495227435</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="E44" t="n">
-        <v>999.5659703439796</v>
+        <v>904.5860092478674</v>
       </c>
       <c r="F44" t="n">
-        <v>582.6715318739574</v>
+        <v>487.6915707778452</v>
       </c>
       <c r="G44" t="n">
-        <v>169.5087763619605</v>
+        <v>74.52881526584832</v>
       </c>
       <c r="H44" t="n">
-        <v>169.5087763619605</v>
+        <v>74.52881526584832</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
         <v>2365.64850507718</v>
@@ -7672,28 +7672,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T44" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U44" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W44" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X44" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y44" t="n">
-        <v>1802.644240938832</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154367</v>
+        <v>54.70361680265887</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154367</v>
+        <v>374.4427628648853</v>
       </c>
       <c r="L45" t="n">
-        <v>530.879055999857</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N45" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>539.420211517574</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>539.420211517574</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>491.4447586437693</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
         <v>47.31297010154361</v>
@@ -7830,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U46" t="n">
-        <v>539.420211517574</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V46" t="n">
-        <v>539.420211517574</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>539.420211517574</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>539.420211517574</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>539.420211517574</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8297,16 +8297,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>674.5394322581649</v>
       </c>
       <c r="N6" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8531,25 +8531,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>290.0251085634814</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585531</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8704,7 +8704,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
         <v>150.3014472409252</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095482</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>324.2399822288072</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>458.1505014870046</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>509.5709760063966</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>324.2399822288072</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>202.8119771871982</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>683.7992483186069</v>
@@ -9257,10 +9257,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>440.1969457594865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9409,19 +9409,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339704</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9482,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>667.5244230630196</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9643,22 +9643,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9722,22 +9722,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>404.2826663611849</v>
       </c>
       <c r="M24" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>385.1581020577837</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9883,19 +9883,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>290.0251085634814</v>
       </c>
       <c r="M27" t="n">
         <v>683.7992483186069</v>
@@ -9971,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10126,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10193,13 +10193,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084876</v>
       </c>
       <c r="M30" t="n">
-        <v>99.85242174740807</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
@@ -10360,16 +10360,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>301.1357168357237</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10433,7 +10433,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>683.7992483186069</v>
@@ -10445,10 +10445,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q33" t="n">
-        <v>318.4607528074828</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10594,16 +10594,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10664,22 +10664,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>674.5394322581649</v>
       </c>
       <c r="N36" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>270.9005442600792</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10831,19 +10831,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N38" t="n">
-        <v>487.848403846783</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,7 +10910,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069881</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,13 +11062,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>470.2375325962349</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11077,10 +11077,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11150,7 +11150,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11314,7 +11314,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703142958</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,13 +11387,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22549,25 +22549,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.7236354313506</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>54.24207416131097</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -22710,7 +22710,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -22755,16 +22755,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.248802405167794</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -22792,7 +22792,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>11.19117740040218</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22801,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>153.0219216530474</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22950,16 +22950,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22992,19 +22992,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>171.9684103248036</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>9.757563516060259</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>405.4791747489409</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>17.54100829227411</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>88.0452832664096</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>26.46049623284807</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>238.7514226320496</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23308,22 +23308,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>28.60816615893401</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23421,22 +23421,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -23469,13 +23469,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>134.6226772891921</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,10 +23734,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>13.7050854001501</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.83481595771156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23782,10 +23782,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23943,13 +23943,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>124.8917514574865</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12.41075375499878</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24019,16 +24019,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>223.9993113779152</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>213.6580727538598</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24256,7 +24256,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>144.1400749395015</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24414,16 +24414,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24460,10 +24460,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>220.1782052834398</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>53.80699021654573</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24685,22 +24685,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.3611583245065</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>312.6855712100567</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>9.188072053037644</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24894,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>224.8539423413484</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>240.825487822908</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25125,19 +25125,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>87.62118754448957</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,25 +25156,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>76.04685549308783</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>82.96341788091252</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,13 +25329,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>152.6148448529435</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>66.22115073626762</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25453,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>54.29936190617457</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25602,7 +25602,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>239.3145765000571</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25681,16 +25681,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>48.63967091115941</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>50.09086276933994</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25839,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>15.97989754064706</v>
+        <v>110.0100590257981</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -26028,10 +26028,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>106.5810836214437</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26040,10 +26040,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644004.5325861953</v>
+        <v>644004.5325861952</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644004.532586195</v>
+        <v>644004.5325861953</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644004.532586195</v>
+        <v>644004.5325861954</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644004.532586195</v>
+        <v>644004.5325861952</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644004.5325861952</v>
+        <v>644004.5325861954</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>644004.5325861949</v>
+        <v>644004.5325861953</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644004.532586195</v>
+        <v>644004.5325861953</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644004.5325861952</v>
+        <v>644004.5325861954</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644004.5325861954</v>
+        <v>644004.5325861947</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644004.532586195</v>
+        <v>644004.5325861952</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>169394.3482070292</v>
       </c>
       <c r="D2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="E2" t="n">
         <v>169394.3482070293</v>
       </c>
       <c r="F2" t="n">
+        <v>169394.3482070292</v>
+      </c>
+      <c r="G2" t="n">
         <v>169394.3482070293</v>
-      </c>
-      <c r="G2" t="n">
-        <v>169394.3482070292</v>
       </c>
       <c r="H2" t="n">
         <v>169394.3482070293</v>
       </c>
       <c r="I2" t="n">
+        <v>169394.3482070293</v>
+      </c>
+      <c r="J2" t="n">
+        <v>169394.3482070293</v>
+      </c>
+      <c r="K2" t="n">
         <v>169394.3482070292</v>
-      </c>
-      <c r="J2" t="n">
-        <v>169394.3482070292</v>
-      </c>
-      <c r="K2" t="n">
-        <v>169394.3482070293</v>
       </c>
       <c r="L2" t="n">
         <v>169394.3482070293</v>
@@ -26355,7 +26355,7 @@
         <v>169394.3482070292</v>
       </c>
       <c r="P2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
     </row>
     <row r="3">
@@ -26432,7 +26432,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="G4" t="n">
-        <v>23353.24319649383</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="H4" t="n">
         <v>23353.24319649382</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121740.1582583827</v>
+        <v>-122414.1843846027</v>
       </c>
       <c r="C6" t="n">
-        <v>76455.64773336226</v>
+        <v>75781.62160714221</v>
       </c>
       <c r="D6" t="n">
-        <v>76455.64773336225</v>
+        <v>75781.62160714224</v>
       </c>
       <c r="E6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071423</v>
       </c>
       <c r="F6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="G6" t="n">
-        <v>110083.2477333622</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="H6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="I6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="J6" t="n">
-        <v>-44656.18663224117</v>
+        <v>-45330.21275846115</v>
       </c>
       <c r="K6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="L6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071423</v>
       </c>
       <c r="M6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="N6" t="n">
-        <v>110083.2477333623</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="O6" t="n">
-        <v>110083.2477333622</v>
+        <v>109409.2216071422</v>
       </c>
       <c r="P6" t="n">
-        <v>110083.2477333622</v>
+        <v>109409.2216071422</v>
       </c>
     </row>
   </sheetData>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>582.152310208853</v>
       </c>
       <c r="N6" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>199.9647617065631</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35424,7 +35424,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>309.0320101492205</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>113.2150418538649</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>591.4121262692951</v>
@@ -35977,10 +35977,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>347.5093868705977</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>582.152310208853</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36363,22 +36363,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>314.2223195042667</v>
       </c>
       <c r="M24" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>292.4705431688948</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36603,19 +36603,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>199.9647617065631</v>
       </c>
       <c r="M27" t="n">
         <v>591.4121262692951</v>
@@ -36691,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36846,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515693</v>
       </c>
       <c r="M30" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
@@ -37080,16 +37080,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>152.0172254979396</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>591.4121262692951</v>
@@ -37165,10 +37165,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.4725996515689</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37314,16 +37314,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>582.152310208853</v>
       </c>
       <c r="N36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>178.2129853711903</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37551,19 +37551,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N38" t="n">
-        <v>338.7299125089989</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37630,7 +37630,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576762</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>316.9893628657432</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37797,10 +37797,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38034,7 +38034,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.465299698096228</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38107,13 +38107,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
